--- a/3. Intermediate Project/real_estate_page_1.xlsx
+++ b/3. Intermediate Project/real_estate_page_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>Street</t>
   </si>
@@ -31,157 +31,154 @@
     <t>Price</t>
   </si>
   <si>
+    <t>2018 42nd Ave</t>
+  </si>
+  <si>
     <t>4366 25th St</t>
   </si>
   <si>
-    <t>990 Hollister Ave</t>
+    <t>224 Sea Cliff Ave</t>
+  </si>
+  <si>
+    <t>45 Capra Way</t>
+  </si>
+  <si>
+    <t>122 Chicago Way</t>
+  </si>
+  <si>
+    <t>3321 Moraga St</t>
   </si>
   <si>
     <t>2582 Filbert St</t>
   </si>
   <si>
-    <t>520 Miramar Ave</t>
+    <t>2446 47th Ave</t>
+  </si>
+  <si>
+    <t>627 Paris St</t>
+  </si>
+  <si>
+    <t>720 Laguna Honda Blvd</t>
+  </si>
+  <si>
+    <t>2219 Pacific Ave</t>
+  </si>
+  <si>
+    <t>1701 Grove St #1</t>
+  </si>
+  <si>
+    <t>70 Crestlake Dr</t>
   </si>
   <si>
     <t>2698 Pacific Ave</t>
   </si>
   <si>
-    <t>70 Crestlake Dr</t>
-  </si>
-  <si>
-    <t>720 Laguna Honda Blvd</t>
-  </si>
-  <si>
-    <t>42 Mars St</t>
-  </si>
-  <si>
-    <t>2018 42nd Ave</t>
-  </si>
-  <si>
-    <t>348 Eureka St</t>
+    <t>1125A Church St</t>
+  </si>
+  <si>
+    <t>333 Haight St #3</t>
+  </si>
+  <si>
+    <t>2695 23rd Ave</t>
+  </si>
+  <si>
+    <t>870 Harrison St #405</t>
+  </si>
+  <si>
+    <t>106 Clipper St</t>
+  </si>
+  <si>
+    <t>126 Clayton St</t>
+  </si>
+  <si>
+    <t>1685 Cayuga Ave</t>
+  </si>
+  <si>
+    <t>2828 Vallejo St</t>
+  </si>
+  <si>
+    <t>662 Hearst Ave</t>
+  </si>
+  <si>
+    <t>10 Sea Cliff Ave</t>
+  </si>
+  <si>
+    <t>1921 Washington St</t>
+  </si>
+  <si>
+    <t>607-607A Arkansas St</t>
+  </si>
+  <si>
+    <t>610 Ortega St</t>
+  </si>
+  <si>
+    <t>1695 18th St #308</t>
   </si>
   <si>
     <t>2919 California St</t>
   </si>
   <si>
-    <t>882 Moultrie St</t>
-  </si>
-  <si>
-    <t>1468 Van Dyke Ave</t>
-  </si>
-  <si>
-    <t>870 Harrison St #405</t>
-  </si>
-  <si>
-    <t>2695 23rd Ave</t>
-  </si>
-  <si>
-    <t>600 Gates St</t>
-  </si>
-  <si>
-    <t>2219 Pacific Ave</t>
-  </si>
-  <si>
-    <t>151 Hearst Ave</t>
-  </si>
-  <si>
-    <t>1921 Washington St</t>
-  </si>
-  <si>
-    <t>333 Haight St #3</t>
-  </si>
-  <si>
     <t>4366 26th St</t>
   </si>
   <si>
-    <t>400 Pioche St</t>
-  </si>
-  <si>
-    <t>610 Ortega St</t>
-  </si>
-  <si>
-    <t>2082 36th Ave</t>
-  </si>
-  <si>
-    <t>126 Clayton St</t>
-  </si>
-  <si>
-    <t>38 Lusk St #2</t>
-  </si>
-  <si>
-    <t>1785 Geneva Ave</t>
-  </si>
-  <si>
-    <t>80 Beachmont Dr</t>
-  </si>
-  <si>
-    <t>3276 Harrison St</t>
-  </si>
-  <si>
-    <t>3239 Webster St</t>
+    <t>Outer Sunset, San Francisco, CA</t>
   </si>
   <si>
     <t>Noe Valley, San Francisco, CA</t>
   </si>
   <si>
-    <t>Bret Harte, San Francisco, CA</t>
+    <t>Seacliff, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Marina, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Crocker Amazon, San Francisco, CA</t>
   </si>
   <si>
     <t>Cow Hollow, San Francisco, CA</t>
   </si>
   <si>
-    <t>Westwood Park, San Francisco, CA</t>
+    <t>Excelsior, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Laguna Honda, San Francisco, CA</t>
   </si>
   <si>
     <t>Pacific Heights, San Francisco, CA</t>
   </si>
   <si>
+    <t>Panhandle, San Francisco, CA</t>
+  </si>
+  <si>
     <t>Parkside, San Francisco, CA</t>
   </si>
   <si>
-    <t>Laguna Honda, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Eureka Valley, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Outer Sunset, San Francisco, CA</t>
+    <t>Dolores Heights, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Mint Hill, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>South of Market, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Outer Mission, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Sunnyside, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Potrero Hill, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Golden Gate Heights, San Francisco, CA</t>
   </si>
   <si>
     <t>Lower Pacific Heights, San Francisco, CA</t>
   </si>
   <si>
-    <t>Bernal Heights, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Bayview, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>South of Market, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Sunnyside, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Mint Hill, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>University Mound, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Golden Gate Heights, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Panhandle, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Crocker Amazon, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Merced Manor, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Marina, San Francisco, CA</t>
+    <t>2bd</t>
   </si>
   <si>
     <t>3bd</t>
@@ -190,127 +187,136 @@
     <t>6bd</t>
   </si>
   <si>
+    <t>4bd</t>
+  </si>
+  <si>
+    <t>5bd</t>
+  </si>
+  <si>
     <t>8bd</t>
   </si>
   <si>
-    <t>5bd</t>
-  </si>
-  <si>
-    <t>2bd</t>
-  </si>
-  <si>
-    <t>4bd</t>
+    <t>1bd</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>1ba</t>
   </si>
   <si>
     <t>2ba</t>
   </si>
   <si>
+    <t>7ba</t>
+  </si>
+  <si>
+    <t>6ba</t>
+  </si>
+  <si>
+    <t>3ba</t>
+  </si>
+  <si>
     <t>9ba</t>
   </si>
   <si>
+    <t>5ba</t>
+  </si>
+  <si>
     <t>8ba</t>
   </si>
   <si>
-    <t>3ba</t>
-  </si>
-  <si>
-    <t>1ba</t>
-  </si>
-  <si>
     <t>4ba</t>
   </si>
   <si>
-    <t>5ba</t>
-  </si>
-  <si>
-    <t>6ba</t>
+    <t>$899,000</t>
   </si>
   <si>
     <t>$1,795,000</t>
   </si>
   <si>
-    <t>$859,000</t>
+    <t>$15,375,000</t>
+  </si>
+  <si>
+    <t>$10,300,000</t>
+  </si>
+  <si>
+    <t>$1,095,000</t>
+  </si>
+  <si>
+    <t>$1,185,000</t>
   </si>
   <si>
     <t>$46,000,000</t>
   </si>
   <si>
-    <t>$998,000</t>
+    <t>$1,295,000</t>
+  </si>
+  <si>
+    <t>$988,000</t>
+  </si>
+  <si>
+    <t>$1,995,000</t>
+  </si>
+  <si>
+    <t>$6,850,000</t>
+  </si>
+  <si>
+    <t>$995,000</t>
+  </si>
+  <si>
+    <t>$1,495,000</t>
   </si>
   <si>
     <t>$25,800,000</t>
   </si>
   <si>
-    <t>$1,495,000</t>
-  </si>
-  <si>
-    <t>$1,995,000</t>
-  </si>
-  <si>
-    <t>$2,600,000</t>
-  </si>
-  <si>
-    <t>$899,000</t>
-  </si>
-  <si>
-    <t>$2,495,000</t>
+    <t>$695,000</t>
+  </si>
+  <si>
+    <t>$850,000</t>
+  </si>
+  <si>
+    <t>$1,399,000</t>
+  </si>
+  <si>
+    <t>$369,563</t>
+  </si>
+  <si>
+    <t>$1,395,000</t>
+  </si>
+  <si>
+    <t>$1,595,000</t>
+  </si>
+  <si>
+    <t>$1,049,000</t>
+  </si>
+  <si>
+    <t>$28,000,000</t>
+  </si>
+  <si>
+    <t>$945,000</t>
+  </si>
+  <si>
+    <t>$6,500,000</t>
+  </si>
+  <si>
+    <t>$4,995,000</t>
+  </si>
+  <si>
+    <t>$1,150,000</t>
+  </si>
+  <si>
+    <t>$4,375,000</t>
+  </si>
+  <si>
+    <t>$257,158</t>
   </si>
   <si>
     <t>$3,500,000</t>
   </si>
   <si>
-    <t>$995,000</t>
-  </si>
-  <si>
-    <t>$680,000</t>
-  </si>
-  <si>
-    <t>$369,563</t>
-  </si>
-  <si>
-    <t>$1,399,000</t>
-  </si>
-  <si>
-    <t>$2,095,000</t>
-  </si>
-  <si>
-    <t>$6,850,000</t>
-  </si>
-  <si>
-    <t>$1,159,000</t>
-  </si>
-  <si>
-    <t>$4,995,000</t>
-  </si>
-  <si>
-    <t>$850,000</t>
-  </si>
-  <si>
     <t>$3,295,000</t>
-  </si>
-  <si>
-    <t>$1,249,000</t>
-  </si>
-  <si>
-    <t>$4,375,000</t>
-  </si>
-  <si>
-    <t>$1,295,000</t>
-  </si>
-  <si>
-    <t>$1,595,000</t>
-  </si>
-  <si>
-    <t>$849,000</t>
-  </si>
-  <si>
-    <t>$1,895,000</t>
-  </si>
-  <si>
-    <t>$1,695,000</t>
-  </si>
-  <si>
-    <t>$5,195,000</t>
   </si>
 </sst>
 </file>
@@ -699,13 +705,13 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -716,13 +722,13 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -733,13 +739,13 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -750,13 +756,13 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -767,13 +773,13 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -781,16 +787,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -798,16 +804,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -815,16 +821,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -832,16 +838,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -852,13 +858,13 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -866,16 +872,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -883,16 +889,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -900,16 +906,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -917,16 +923,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -934,16 +940,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -951,16 +957,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -968,16 +974,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -988,13 +994,13 @@
         <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1002,16 +1008,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1019,16 +1025,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1036,16 +1042,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1053,16 +1059,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1070,16 +1076,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1087,16 +1093,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1104,16 +1110,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1121,16 +1127,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1138,16 +1144,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1155,16 +1161,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1172,16 +1178,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1189,16 +1195,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
